--- a/TechnicalReport/comparison.xlsx
+++ b/TechnicalReport/comparison.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2 (3)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="27">
   <si>
     <t>Gaussian Naive Bayes</t>
   </si>
@@ -95,17 +97,28 @@
   <si>
     <t>K-nearest Neighbors K=3</t>
   </si>
+  <si>
+    <t>Multi-layer Perceptron (107 Neurons - 2 hidden Layers)</t>
+  </si>
+  <si>
+    <t>Multi-layer Perceptron (119 Neurons - 2 hidden Layers)</t>
+  </si>
+  <si>
+    <t>Classfier</t>
+  </si>
+  <si>
+    <t>Image Descriptor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.0000"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -148,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,9 +290,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -281,7 +299,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -290,23 +308,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -314,8 +317,14 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -329,23 +338,43 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,75 +657,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D14:G20"/>
+  <dimension ref="B7:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" s="30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="27"/>
+      <c r="D16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="24">
         <v>0.84848484848500005</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+      <c r="F16" s="24">
+        <v>0.78787878787900001</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0.82828282828300004</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="27"/>
+      <c r="D17" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="24">
         <v>0.56565656565699995</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="F17" s="24">
+        <v>0.91919191919200005</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0.43434343434299999</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="27"/>
+      <c r="D18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="24">
         <v>0.64646464646500001</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+      <c r="F18" s="24">
+        <v>0.91919191919200005</v>
+      </c>
+      <c r="G18" s="24">
+        <v>0.69696969697</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="27"/>
+      <c r="D19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="24">
         <v>0.83838383838399999</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="F19" s="24">
+        <v>0.74747474747499998</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0.83838383838399999</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="27"/>
+      <c r="D20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="25">
         <v>0.91919191919200005</v>
       </c>
+      <c r="F20" s="25">
+        <v>0.96969696969700003</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0.86274509803921573</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="27"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="27"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="27"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="27"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="27"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="27"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:G14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -706,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
@@ -720,796 +963,801 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>28</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>10</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="9">
         <f>D7/(D7+E7)</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>5</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>56</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="9">
         <f>E8/(D8+E8)</f>
         <v>0.91803278688524592</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4">
         <f>D7/(D7+D8)</f>
         <v>0.84848484848484851</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f>E8/(E7+E8)</f>
         <v>0.84848484848484851</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="10">
         <f>(D7+E8)/(D7+E7+D8+E8)</f>
         <v>0.84848484848484851</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="2"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="7" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>32</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>6</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="9">
         <f>D19/(D19+E19)</f>
         <v>0.84210526315789469</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>2</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>59</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="9">
         <f>E20/(D20+E20)</f>
         <v>0.96721311475409832</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4">
         <f>D19/(D19+D20)</f>
         <v>0.94117647058823528</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <f>E20/(E19+E20)</f>
         <v>0.90769230769230769</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="10">
         <f>(D19+E20)/(D19+E19+D20+E20)</f>
         <v>0.91919191919191923</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="7" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>34</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>4</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="9">
         <f>D32/(D32+E32)</f>
         <v>0.89473684210526316</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>39</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>22</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="9">
         <f>E33/(D33+E33)</f>
         <v>0.36065573770491804</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="5">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4">
         <f>D32/(D32+D33)</f>
         <v>0.46575342465753422</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <f>E33/(E32+E33)</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="10">
         <f>(D32+E33)/(D32+E32+D33+E33)</f>
         <v>0.56565656565656564</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="2"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="7" t="s">
+      <c r="A44" s="1"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="25" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>26</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>12</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="9">
         <f>D45/(D45+E45)</f>
         <v>0.68421052631578949</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="9" t="s">
+      <c r="A46" s="1"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>4</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>57</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="9">
         <f>E46/(D46+E46)</f>
         <v>0.93442622950819676</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4" t="s">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="5">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4">
         <f>D45/(D45+D46)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <f>E46/(E45+E46)</f>
         <v>0.82608695652173914</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="10">
         <f>(D45+E46)/(D45+E45+D46+E46)</f>
         <v>0.83838383838383834</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="1"/>
+      <c r="B57" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="23" t="s">
+      <c r="C57" s="14"/>
+      <c r="D57" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="2"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="7" t="s">
+      <c r="A58" s="1"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="25" t="s">
+      <c r="A59" s="1"/>
+      <c r="B59" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>3</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <v>35</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="9">
         <f>D59/(D59+E59)</f>
         <v>7.8947368421052627E-2</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="9" t="s">
+      <c r="A60" s="1"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>0</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>61</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F60" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="9">
         <f>E60/(D60+E60)</f>
         <v>1</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4" t="s">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="5">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="4">
         <f>D59/(D59+D60)</f>
         <v>1</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="4">
         <f>E60/(E59+E60)</f>
         <v>0.63541666666666663</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="10">
         <f>(D59+E60)/(D59+E59+D60+E60)</f>
         <v>0.64646464646464652</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B57:C58"/>
     <mergeCell ref="D57:E57"/>
@@ -1520,11 +1768,1662 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B43:C44"/>
     <mergeCell ref="D43:E43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="9">
+        <f>D7/(D7+E7)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>59</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="9">
+        <f>E8/(D8+E8)</f>
+        <v>0.96721311475409832</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4">
+        <f>D7/(D7+D8)</f>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="E10" s="4">
+        <f>E8/(E7+E8)</f>
+        <v>0.75641025641025639</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10">
+        <f>(D7+E8)/(D7+E7+D8+E8)</f>
+        <v>0.78787878787878785</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="9">
+        <f>D19/(D19+E19)</f>
+        <v>0.97368421052631582</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>59</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="9">
+        <f>E20/(D20+E20)</f>
+        <v>0.96721311475409832</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4">
+        <f>D19/(D19+D20)</f>
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="E22" s="4">
+        <f>E20/(E19+E20)</f>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="10">
+        <f>(D19+E20)/(D19+E19+D20+E20)</f>
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="6">
+        <v>34</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="9">
+        <f>D32/(D32+E32)</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4</v>
+      </c>
+      <c r="E33" s="6">
+        <v>57</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="9">
+        <f>E33/(D33+E33)</f>
+        <v>0.93442622950819676</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4">
+        <f>D32/(D32+D33)</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="E35" s="4">
+        <f>E33/(E32+E33)</f>
+        <v>0.93442622950819676</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="10">
+        <f>(D32+E33)/(D32+E32+D33+E33)</f>
+        <v>0.91919191919191923</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="6">
+        <v>31</v>
+      </c>
+      <c r="E45" s="6">
+        <v>7</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="9">
+        <f>D45/(D45+E45)</f>
+        <v>0.81578947368421051</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>60</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="9">
+        <f>E46/(D46+E46)</f>
+        <v>0.98360655737704916</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4">
+        <f>D45/(D45+D46)</f>
+        <v>0.96875</v>
+      </c>
+      <c r="E48" s="4">
+        <f>E46/(E45+E46)</f>
+        <v>0.89552238805970152</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="10">
+        <f>(D45+E46)/(D45+E45+D46+E46)</f>
+        <v>0.91919191919191923</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="6">
+        <v>15</v>
+      </c>
+      <c r="E59" s="6">
+        <v>23</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="9">
+        <f>D59/(D59+E59)</f>
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="6">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6">
+        <v>59</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="9">
+        <f>E60/(D60+E60)</f>
+        <v>0.96721311475409832</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="4">
+        <f>D59/(D59+D60)</f>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="E62" s="4">
+        <f>E60/(E59+E60)</f>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="10">
+        <f>(D59+E60)/(D59+E59+D60+E60)</f>
+        <v>0.74747474747474751</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B5:C6"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B19:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="9">
+        <f>D7/(D7+E7)</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6">
+        <v>54</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="9">
+        <f>E8/(D8+E8)</f>
+        <v>0.88524590163934425</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4">
+        <f>D7/(D7+D8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="4">
+        <f>E8/(E7+E8)</f>
+        <v>0.84375</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10">
+        <f>(D7+E8)/(D7+E7+D8+E8)</f>
+        <v>0.82828282828282829</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6">
+        <v>33</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="9">
+        <f>D19/(D19+E19)</f>
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="6">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6">
+        <v>55</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="9">
+        <f>E20/(D20+E20)</f>
+        <v>0.859375</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4">
+        <f>D19/(D19+D20)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E22" s="4">
+        <f>E20/(E19+E20)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="10">
+        <f>(D19+E20)/(D19+E19+D20+E20)</f>
+        <v>0.86274509803921573</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="6">
+        <v>33</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="9">
+        <f>D32/(D32+E32)</f>
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="6">
+        <v>51</v>
+      </c>
+      <c r="E33" s="6">
+        <v>10</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="9">
+        <f>E33/(D33+E33)</f>
+        <v>0.16393442622950818</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4">
+        <f>D32/(D32+D33)</f>
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="E35" s="4">
+        <f>E33/(E32+E33)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="10">
+        <f>(D32+E33)/(D32+E32+D33+E33)</f>
+        <v>0.43434343434343436</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="6">
+        <v>32</v>
+      </c>
+      <c r="E45" s="6">
+        <v>6</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="9">
+        <f>D45/(D45+E45)</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="6">
+        <v>10</v>
+      </c>
+      <c r="E46" s="6">
+        <v>51</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="9">
+        <f>E46/(D46+E46)</f>
+        <v>0.83606557377049184</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4">
+        <f>D45/(D45+D46)</f>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="E48" s="4">
+        <f>E46/(E45+E46)</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="10">
+        <f>(D45+E46)/(D45+E45+D46+E46)</f>
+        <v>0.83838383838383834</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="6">
+        <v>15</v>
+      </c>
+      <c r="E59" s="6">
+        <v>23</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="9">
+        <f>D59/(D59+E59)</f>
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="6">
+        <v>7</v>
+      </c>
+      <c r="E60" s="6">
+        <v>54</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="9">
+        <f>E60/(D60+E60)</f>
+        <v>0.88524590163934425</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="4">
+        <f>D59/(D59+D60)</f>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="E62" s="4">
+        <f>E60/(E59+E60)</f>
+        <v>0.70129870129870131</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="10">
+        <f>(D59+E60)/(D59+E59+D60+E60)</f>
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TechnicalReport/comparison.xlsx
+++ b/TechnicalReport/comparison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="26">
   <si>
     <t>Gaussian Naive Bayes</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Multi-layer Perceptron (test)</t>
   </si>
   <si>
-    <t>Crop =  1</t>
-  </si>
-  <si>
-    <t>Crop =1</t>
-  </si>
-  <si>
     <t>Crop = 0</t>
   </si>
   <si>
@@ -84,12 +78,6 @@
   </si>
   <si>
     <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Target</t>
   </si>
   <si>
     <t>Multi-layer Perceptron (197 Neurons - 2 hidden Layers)</t>
@@ -109,6 +97,15 @@
   <si>
     <t>Image Descriptor</t>
   </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Crop = 1</t>
+  </si>
 </sst>
 </file>
 
@@ -117,8 +114,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -299,7 +296,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -317,13 +314,39 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -344,37 +367,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -659,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -693,7 +690,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -703,7 +700,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -713,7 +710,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -723,7 +720,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -733,7 +730,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -742,120 +739,120 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="30" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="27"/>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="11">
         <v>0.84848484848500005</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="11">
         <v>0.78787878787900001</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="11">
         <v>0.82828282828300004</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="27"/>
-      <c r="D17" s="26" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="11">
         <v>0.56565656565699995</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="11">
         <v>0.91919191919200005</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="11">
         <v>0.43434343434299999</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="27"/>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="11">
         <v>0.64646464646500001</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="11">
         <v>0.91919191919200005</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="11">
         <v>0.69696969697</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="27"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="11">
         <v>0.83838383838399999</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="11">
         <v>0.74747474747499998</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="11">
         <v>0.83838383838399999</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="27"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="12">
         <v>0.91919191919200005</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="12">
         <v>0.96969696969700003</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="12">
         <v>0.86274509803921573</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="27"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -864,7 +861,7 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="27"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -873,7 +870,7 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="27"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -882,7 +879,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="27"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -891,7 +888,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="27"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -900,7 +897,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="27"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -949,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,27 +1001,27 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="18"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1032,11 +1029,11 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
-        <v>19</v>
+      <c r="B7" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6">
         <v>28</v>
@@ -1045,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="9">
         <f>D7/(D7+E7)</f>
@@ -1055,9 +1052,9 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
@@ -1066,7 +1063,7 @@
         <v>56</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="9">
         <f>E8/(D8+E8)</f>
@@ -1079,10 +1076,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1101,7 +1098,7 @@
         <v>0.84848484848484851</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" s="10">
         <f>(D7+E8)/(D7+E7+D8+E8)</f>
@@ -1174,27 +1171,27 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="18"/>
+      <c r="B17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="28"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1202,11 +1199,11 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="11" t="s">
-        <v>19</v>
+      <c r="B19" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6">
         <v>32</v>
@@ -1215,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" s="9">
         <f>D19/(D19+E19)</f>
@@ -1225,9 +1222,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
@@ -1236,7 +1233,7 @@
         <v>59</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" s="9">
         <f>E20/(D20+E20)</f>
@@ -1249,10 +1246,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1271,7 +1268,7 @@
         <v>0.90769230769230769</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22" s="10">
         <f>(D19+E20)/(D19+E19+D20+E20)</f>
@@ -1319,37 +1316,37 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="19"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="18"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>19</v>
+      <c r="B32" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="6">
         <v>34</v>
@@ -1358,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G32" s="9">
         <f>D32/(D32+E32)</f>
@@ -1367,9 +1364,9 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D33" s="6">
         <v>39</v>
@@ -1378,7 +1375,7 @@
         <v>22</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G33" s="9">
         <f>E33/(D33+E33)</f>
@@ -1390,10 +1387,10 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1411,7 +1408,7 @@
         <v>0.84615384615384615</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35" s="10">
         <f>(D32+E33)/(D32+E32+D33+E33)</f>
@@ -1469,27 +1466,27 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="18"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="28"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -1497,11 +1494,11 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="11" t="s">
-        <v>19</v>
+      <c r="B45" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="6">
         <v>26</v>
@@ -1510,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G45" s="9">
         <f>D45/(D45+E45)</f>
@@ -1520,9 +1517,9 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="12"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D46" s="6">
         <v>4</v>
@@ -1531,7 +1528,7 @@
         <v>57</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G46" s="9">
         <f>E46/(D46+E46)</f>
@@ -1544,10 +1541,10 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -1566,7 +1563,7 @@
         <v>0.82608695652173914</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G48" s="10">
         <f>(D45+E46)/(D45+E45+D46+E46)</f>
@@ -1636,27 +1633,27 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="18"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="28"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -1664,11 +1661,11 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="11" t="s">
-        <v>19</v>
+      <c r="B59" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
@@ -1677,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G59" s="9">
         <f>D59/(D59+E59)</f>
@@ -1687,9 +1684,9 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="12"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D60" s="6">
         <v>0</v>
@@ -1698,7 +1695,7 @@
         <v>61</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G60" s="9">
         <f>E60/(D60+E60)</f>
@@ -1711,10 +1708,10 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -1733,7 +1730,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G62" s="10">
         <f>(D59+E60)/(D59+E59+D60+E60)</f>
@@ -1753,11 +1750,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B57:C58"/>
     <mergeCell ref="D57:E57"/>
@@ -1768,6 +1760,11 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B43:C44"/>
     <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1832,27 +1829,27 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="18"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1860,11 +1857,11 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
-        <v>19</v>
+      <c r="B7" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6">
         <v>19</v>
@@ -1873,7 +1870,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="9">
         <f>D7/(D7+E7)</f>
@@ -1883,9 +1880,9 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -1894,7 +1891,7 @@
         <v>59</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="9">
         <f>E8/(D8+E8)</f>
@@ -1907,10 +1904,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1929,7 +1926,7 @@
         <v>0.75641025641025639</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" s="10">
         <f>(D7+E8)/(D7+E7+D8+E8)</f>
@@ -2002,27 +1999,27 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2030,11 +2027,11 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="11" t="s">
-        <v>19</v>
+      <c r="B19" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6">
         <v>37</v>
@@ -2043,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" s="9">
         <f>D19/(D19+E19)</f>
@@ -2053,9 +2050,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
@@ -2064,7 +2061,7 @@
         <v>59</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" s="9">
         <f>E20/(D20+E20)</f>
@@ -2077,10 +2074,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2099,7 +2096,7 @@
         <v>0.98333333333333328</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22" s="10">
         <f>(D19+E20)/(D19+E19+D20+E20)</f>
@@ -2147,37 +2144,37 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="19"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="18"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>19</v>
+      <c r="B32" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="6">
         <v>34</v>
@@ -2186,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G32" s="9">
         <f>D32/(D32+E32)</f>
@@ -2195,9 +2192,9 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D33" s="6">
         <v>4</v>
@@ -2206,7 +2203,7 @@
         <v>57</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G33" s="9">
         <f>E33/(D33+E33)</f>
@@ -2218,10 +2215,10 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2239,7 +2236,7 @@
         <v>0.93442622950819676</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35" s="10">
         <f>(D32+E33)/(D32+E32+D33+E33)</f>
@@ -2297,27 +2294,27 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="18"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="28"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2325,11 +2322,11 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="11" t="s">
-        <v>19</v>
+      <c r="B45" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="6">
         <v>31</v>
@@ -2338,7 +2335,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G45" s="9">
         <f>D45/(D45+E45)</f>
@@ -2348,9 +2345,9 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="12"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D46" s="6">
         <v>1</v>
@@ -2359,7 +2356,7 @@
         <v>60</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G46" s="9">
         <f>E46/(D46+E46)</f>
@@ -2372,10 +2369,10 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2394,7 +2391,7 @@
         <v>0.89552238805970152</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G48" s="10">
         <f>(D45+E46)/(D45+E45+D46+E46)</f>
@@ -2464,27 +2461,27 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="18"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="28"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2492,11 +2489,11 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="11" t="s">
-        <v>19</v>
+      <c r="B59" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="6">
         <v>15</v>
@@ -2505,7 +2502,7 @@
         <v>23</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G59" s="9">
         <f>D59/(D59+E59)</f>
@@ -2515,9 +2512,9 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="12"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D60" s="6">
         <v>2</v>
@@ -2526,7 +2523,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G60" s="9">
         <f>E60/(D60+E60)</f>
@@ -2539,10 +2536,10 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -2561,7 +2558,7 @@
         <v>0.71951219512195119</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G62" s="10">
         <f>(D59+E60)/(D59+E59+D60+E60)</f>
@@ -2581,6 +2578,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B57:C58"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B59:B60"/>
@@ -2590,12 +2593,6 @@
     <mergeCell ref="B43:C44"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2660,27 +2657,27 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="18"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2688,11 +2685,11 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
-        <v>19</v>
+      <c r="B7" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6">
         <v>28</v>
@@ -2701,7 +2698,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="9">
         <f>D7/(D7+E7)</f>
@@ -2711,9 +2708,9 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6">
         <v>7</v>
@@ -2722,7 +2719,7 @@
         <v>54</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="9">
         <f>E8/(D8+E8)</f>
@@ -2735,10 +2732,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2757,7 +2754,7 @@
         <v>0.84375</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" s="10">
         <f>(D7+E8)/(D7+E7+D8+E8)</f>
@@ -2830,27 +2827,27 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="28"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2858,11 +2855,11 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="11" t="s">
-        <v>19</v>
+      <c r="B19" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6">
         <v>33</v>
@@ -2871,7 +2868,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" s="9">
         <f>D19/(D19+E19)</f>
@@ -2881,9 +2878,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D20" s="6">
         <v>9</v>
@@ -2892,7 +2889,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" s="9">
         <f>E20/(D20+E20)</f>
@@ -2905,10 +2902,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2927,7 +2924,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22" s="10">
         <f>(D19+E20)/(D19+E19+D20+E20)</f>
@@ -2975,37 +2972,37 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="19"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="18"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>19</v>
+      <c r="B32" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="6">
         <v>33</v>
@@ -3014,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G32" s="9">
         <f>D32/(D32+E32)</f>
@@ -3023,9 +3020,9 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D33" s="6">
         <v>51</v>
@@ -3034,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G33" s="9">
         <f>E33/(D33+E33)</f>
@@ -3046,10 +3043,10 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3067,7 +3064,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35" s="10">
         <f>(D32+E33)/(D32+E32+D33+E33)</f>
@@ -3125,27 +3122,27 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="18"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="28"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3153,11 +3150,11 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="11" t="s">
-        <v>19</v>
+      <c r="B45" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="6">
         <v>32</v>
@@ -3166,7 +3163,7 @@
         <v>6</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G45" s="9">
         <f>D45/(D45+E45)</f>
@@ -3176,9 +3173,9 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="12"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D46" s="6">
         <v>10</v>
@@ -3187,7 +3184,7 @@
         <v>51</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G46" s="9">
         <f>E46/(D46+E46)</f>
@@ -3200,10 +3197,10 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3222,7 +3219,7 @@
         <v>0.89473684210526316</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G48" s="10">
         <f>(D45+E46)/(D45+E45+D46+E46)</f>
@@ -3292,27 +3289,27 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="18"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="28"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3320,11 +3317,11 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="11" t="s">
-        <v>19</v>
+      <c r="B59" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="6">
         <v>15</v>
@@ -3333,7 +3330,7 @@
         <v>23</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G59" s="9">
         <f>D59/(D59+E59)</f>
@@ -3343,9 +3340,9 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="12"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D60" s="6">
         <v>7</v>
@@ -3354,7 +3351,7 @@
         <v>54</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G60" s="9">
         <f>E60/(D60+E60)</f>
@@ -3367,10 +3364,10 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3389,7 +3386,7 @@
         <v>0.70129870129870131</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G62" s="10">
         <f>(D59+E60)/(D59+E59+D60+E60)</f>
@@ -3409,6 +3406,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B57:C58"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B59:B60"/>
@@ -3418,12 +3421,6 @@
     <mergeCell ref="B43:C44"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TechnicalReport/comparison.xlsx
+++ b/TechnicalReport/comparison.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja2 (2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja2 (3)" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja3" sheetId="5" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja2 (2)" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja2 (3)" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="26">
   <si>
     <t>Gaussian Naive Bayes</t>
   </si>
@@ -334,19 +335,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -367,10 +359,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -389,6 +390,1089 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Mean accuracy </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIFT + BagOfVisualWords</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$F$16:$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>K-nearest Neighbors (test)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Naive Bayes (test)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest (test)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>One-vs-the-rest (test)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Multi-layer Perceptron (test)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$G$16:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.84848484848500005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56565656565699995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64646464646500001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83838383838399999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91919191919200005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C893-4522-804B-2FD61A4D7939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIFT + Fisher Vector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$F$16:$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>K-nearest Neighbors (test)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Naive Bayes (test)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest (test)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>One-vs-the-rest (test)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Multi-layer Perceptron (test)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$H$16:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.78787878787900001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91919191919200005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91919191919200005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74747474747499998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96969696969700003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C893-4522-804B-2FD61A4D7939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIFT + VLAD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$F$16:$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>K-nearest Neighbors (test)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Naive Bayes (test)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest (test)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>One-vs-the-rest (test)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Multi-layer Perceptron (test)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$I$16:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82828282828300004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43434343434299999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69696969697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83838383838399999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86274509803921573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C893-4522-804B-2FD61A4D7939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1814982655"/>
+        <c:axId val="1814983071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1814982655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814983071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1814983071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814982655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G20" sqref="D14:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,9 +2028,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F15:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="15" spans="6:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.84848484848500005</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.78787878787900001</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.82828282828300004</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.56565656565699995</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.91919191919200005</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.43434343434299999</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.64646464646500001</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.91919191919200005</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.69696969697</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.83838383838399999</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.74747474747499998</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.83838383838399999</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.91919191919200005</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.96969696969700003</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0.86274509803921573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1001,22 +2182,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1029,7 +2210,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1052,7 +2233,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1171,22 +2352,22 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
@@ -1199,7 +2380,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1222,7 +2403,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
@@ -1316,21 +2497,21 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="18" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +2523,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -1364,7 +2545,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="7" t="s">
         <v>25</v>
       </c>
@@ -1466,22 +2647,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="27" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="28"/>
+      <c r="E43" s="25"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="6" t="s">
         <v>11</v>
       </c>
@@ -1494,7 +2675,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -1517,7 +2698,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="7" t="s">
         <v>25</v>
       </c>
@@ -1633,22 +2814,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="27" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="28"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
@@ -1661,7 +2842,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -1684,7 +2865,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="30"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="7" t="s">
         <v>25</v>
       </c>
@@ -1750,6 +2931,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B57:C58"/>
     <mergeCell ref="D57:E57"/>
@@ -1760,17 +2946,12 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B43:C44"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -1829,22 +3010,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1857,7 +3038,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1880,7 +3061,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1999,22 +3180,22 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
@@ -2027,7 +3208,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2050,7 +3231,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
@@ -2144,21 +3325,21 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="18" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
@@ -2170,7 +3351,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2192,7 +3373,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="7" t="s">
         <v>25</v>
       </c>
@@ -2294,22 +3475,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="27" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="28"/>
+      <c r="E43" s="25"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="6" t="s">
         <v>11</v>
       </c>
@@ -2322,7 +3503,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -2345,7 +3526,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="7" t="s">
         <v>25</v>
       </c>
@@ -2461,22 +3642,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="27" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="28"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
@@ -2489,7 +3670,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -2512,7 +3693,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="30"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="7" t="s">
         <v>25</v>
       </c>
@@ -2578,12 +3759,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B57:C58"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B59:B60"/>
@@ -2593,12 +3768,18 @@
     <mergeCell ref="B43:C44"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -2657,22 +3838,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
@@ -2685,7 +3866,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2708,7 +3889,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
@@ -2827,22 +4008,22 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
@@ -2855,7 +4036,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2878,7 +4059,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
@@ -2972,21 +4153,21 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="18" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
@@ -2998,7 +4179,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -3020,7 +4201,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="7" t="s">
         <v>25</v>
       </c>
@@ -3122,22 +4303,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="27" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="28"/>
+      <c r="E43" s="25"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="6" t="s">
         <v>11</v>
       </c>
@@ -3150,7 +4331,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -3173,7 +4354,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="7" t="s">
         <v>25</v>
       </c>
@@ -3289,22 +4470,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="27" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="28"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
@@ -3317,7 +4498,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -3340,7 +4521,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="30"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="7" t="s">
         <v>25</v>
       </c>
@@ -3406,12 +4587,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B57:C58"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B59:B60"/>
@@ -3421,6 +4596,12 @@
     <mergeCell ref="B43:C44"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
